--- a/Result/LSTM Multi/Service/SGP.xlsx
+++ b/Result/LSTM Multi/Service/SGP.xlsx
@@ -399,7 +399,7 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>26.52611559513869</v>
+        <v>59.89965055509169</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +407,7 @@
         <v>1981</v>
       </c>
       <c r="B3">
-        <v>25.7581049024776</v>
+        <v>60.50606220347918</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -415,7 +415,7 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>22.29291490588914</v>
+        <v>61.81918237142892</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -423,7 +423,7 @@
         <v>1983</v>
       </c>
       <c r="B5">
-        <v>21.46434389615849</v>
+        <v>60.6931525566241</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -431,7 +431,7 @@
         <v>1984</v>
       </c>
       <c r="B6">
-        <v>21.40238291509307</v>
+        <v>60.03225466326707</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -439,7 +439,7 @@
         <v>1985</v>
       </c>
       <c r="B7">
-        <v>20.11536164922619</v>
+        <v>63.14080288183875</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -447,7 +447,7 @@
         <v>1986</v>
       </c>
       <c r="B8">
-        <v>22.61381615789615</v>
+        <v>62.61728866032323</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -455,7 +455,7 @@
         <v>1987</v>
       </c>
       <c r="B9">
-        <v>24.09005587328071</v>
+        <v>62.85623332857661</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -463,7 +463,7 @@
         <v>1988</v>
       </c>
       <c r="B10">
-        <v>26.07842073053191</v>
+        <v>61.54086573102785</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -471,7 +471,7 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>25.30122250585156</v>
+        <v>62.33491277718424</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -479,7 +479,7 @@
         <v>1990</v>
       </c>
       <c r="B12">
-        <v>24.40422570975837</v>
+        <v>64.18261285275129</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -487,7 +487,7 @@
         <v>1991</v>
       </c>
       <c r="B13">
-        <v>25.45987665323874</v>
+        <v>62.81721558182291</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -495,7 +495,7 @@
         <v>1992</v>
       </c>
       <c r="B14">
-        <v>24.34968358529537</v>
+        <v>62.46169933655361</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -503,7 +503,7 @@
         <v>1993</v>
       </c>
       <c r="B15">
-        <v>24.47185597678178</v>
+        <v>62.00753448369179</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -511,7 +511,7 @@
         <v>1994</v>
       </c>
       <c r="B16">
-        <v>23.62472169260649</v>
+        <v>61.83283965051876</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -519,7 +519,7 @@
         <v>1995</v>
       </c>
       <c r="B17">
-        <v>23.98506226333385</v>
+        <v>61.61832443780616</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -527,7 +527,7 @@
         <v>1996</v>
       </c>
       <c r="B18">
-        <v>23.16721806017505</v>
+        <v>62.07853748641156</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -535,7 +535,7 @@
         <v>1997</v>
       </c>
       <c r="B19">
-        <v>22.15150365521268</v>
+        <v>62.62999077115974</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -543,7 +543,7 @@
         <v>1998</v>
       </c>
       <c r="B20">
-        <v>22.68745264851204</v>
+        <v>62.7222601305176</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -551,7 +551,7 @@
         <v>1999</v>
       </c>
       <c r="B21">
-        <v>22.85068631305447</v>
+        <v>63.06928086699373</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -559,7 +559,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>25.8614860377559</v>
+        <v>60.66451974372163</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -567,7 +567,7 @@
         <v>2001</v>
       </c>
       <c r="B23">
-        <v>23.39469784741456</v>
+        <v>63.59363423451197</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -575,7 +575,7 @@
         <v>2002</v>
       </c>
       <c r="B24">
-        <v>24.73764032297293</v>
+        <v>63.97695568024015</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -583,7 +583,7 @@
         <v>2003</v>
       </c>
       <c r="B25">
-        <v>24.76541269319689</v>
+        <v>64.34872520763541</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -591,7 +591,7 @@
         <v>2004</v>
       </c>
       <c r="B26">
-        <v>27.11936759706429</v>
+        <v>63.07257512870758</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -599,7 +599,7 @@
         <v>2005</v>
       </c>
       <c r="B27">
-        <v>27.07676179820706</v>
+        <v>64.07318437592549</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -607,7 +607,7 @@
         <v>2006</v>
       </c>
       <c r="B28">
-        <v>26.57800598580277</v>
+        <v>64.87685404905513</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -615,7 +615,7 @@
         <v>2007</v>
       </c>
       <c r="B29">
-        <v>23.82265190452721</v>
+        <v>66.04014850149031</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -623,7 +623,7 @@
         <v>2008</v>
       </c>
       <c r="B30">
-        <v>20.58566497384844</v>
+        <v>68.34796175535224</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -631,7 +631,7 @@
         <v>2009</v>
       </c>
       <c r="B31">
-        <v>20.27337642907351</v>
+        <v>68.00606952330871</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -639,7 +639,7 @@
         <v>2010</v>
       </c>
       <c r="B32">
-        <v>20.77383302531255</v>
+        <v>67.84351708253806</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -647,7 +647,7 @@
         <v>2011</v>
       </c>
       <c r="B33">
-        <v>19.58255150797782</v>
+        <v>69.02312362626182</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -655,7 +655,7 @@
         <v>2012</v>
       </c>
       <c r="B34">
-        <v>19.11682198006619</v>
+        <v>69.20862704581847</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -663,7 +663,7 @@
         <v>2013</v>
       </c>
       <c r="B35">
-        <v>17.63840961487545</v>
+        <v>70.76230615872412</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -671,7 +671,7 @@
         <v>2014</v>
       </c>
       <c r="B36">
-        <v>17.99976889212852</v>
+        <v>70.34532579316748</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -679,7 +679,7 @@
         <v>2015</v>
       </c>
       <c r="B37">
-        <v>18.08932985487341</v>
+        <v>69.950933310914</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -687,7 +687,7 @@
         <v>2016</v>
       </c>
       <c r="B38">
-        <v>17.50825828041602</v>
+        <v>70.66365925256602</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +716,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>21.72826385498047</v>
+        <v>64.49433898925781</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -724,7 +724,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>21.60224533081055</v>
+        <v>65.12973785400391</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -732,7 +732,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>21.35474586486816</v>
+        <v>65.49588775634766</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -740,7 +740,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>21.36603736877441</v>
+        <v>66.33969879150391</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -748,7 +748,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>21.19289016723633</v>
+        <v>67.04771423339844</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +777,7 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>26.52611559513869</v>
+        <v>59.89965055509169</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -785,7 +785,7 @@
         <v>1981</v>
       </c>
       <c r="B3">
-        <v>25.7581049024776</v>
+        <v>60.50606220347918</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -793,7 +793,7 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>22.29291490588914</v>
+        <v>61.81918237142892</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -801,7 +801,7 @@
         <v>1983</v>
       </c>
       <c r="B5">
-        <v>21.46434389615849</v>
+        <v>60.6931525566241</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -809,7 +809,7 @@
         <v>1984</v>
       </c>
       <c r="B6">
-        <v>21.40238291509307</v>
+        <v>60.03225466326707</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -817,7 +817,7 @@
         <v>1985</v>
       </c>
       <c r="B7">
-        <v>20.11536164922619</v>
+        <v>63.14080288183875</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -825,7 +825,7 @@
         <v>1986</v>
       </c>
       <c r="B8">
-        <v>22.61381615789615</v>
+        <v>62.61728866032323</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -833,7 +833,7 @@
         <v>1987</v>
       </c>
       <c r="B9">
-        <v>24.09005587328071</v>
+        <v>62.85623332857661</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -841,7 +841,7 @@
         <v>1988</v>
       </c>
       <c r="B10">
-        <v>26.07842073053191</v>
+        <v>61.54086573102785</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -849,7 +849,7 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>25.30122250585156</v>
+        <v>62.33491277718424</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -857,7 +857,7 @@
         <v>1990</v>
       </c>
       <c r="B12">
-        <v>24.40422570975837</v>
+        <v>64.18261285275129</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -865,7 +865,7 @@
         <v>1991</v>
       </c>
       <c r="B13">
-        <v>25.45987665323874</v>
+        <v>62.81721558182291</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -873,7 +873,7 @@
         <v>1992</v>
       </c>
       <c r="B14">
-        <v>24.34968358529537</v>
+        <v>62.46169933655361</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -881,7 +881,7 @@
         <v>1993</v>
       </c>
       <c r="B15">
-        <v>24.47185597678178</v>
+        <v>62.00753448369179</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -889,7 +889,7 @@
         <v>1994</v>
       </c>
       <c r="B16">
-        <v>23.62472169260649</v>
+        <v>61.83283965051876</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -897,7 +897,7 @@
         <v>1995</v>
       </c>
       <c r="B17">
-        <v>23.98506226333385</v>
+        <v>61.61832443780616</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -905,7 +905,7 @@
         <v>1996</v>
       </c>
       <c r="B18">
-        <v>23.16721806017505</v>
+        <v>62.07853748641156</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -913,7 +913,7 @@
         <v>1997</v>
       </c>
       <c r="B19">
-        <v>22.15150365521268</v>
+        <v>62.62999077115974</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -921,7 +921,7 @@
         <v>1998</v>
       </c>
       <c r="B20">
-        <v>22.68745264851204</v>
+        <v>62.7222601305176</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -929,7 +929,7 @@
         <v>1999</v>
       </c>
       <c r="B21">
-        <v>22.85068631305447</v>
+        <v>63.06928086699373</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -937,7 +937,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>25.8614860377559</v>
+        <v>60.66451974372163</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -945,7 +945,7 @@
         <v>2001</v>
       </c>
       <c r="B23">
-        <v>23.39469784741456</v>
+        <v>63.59363423451197</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -953,7 +953,7 @@
         <v>2002</v>
       </c>
       <c r="B24">
-        <v>24.73764032297293</v>
+        <v>63.97695568024015</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -961,7 +961,7 @@
         <v>2003</v>
       </c>
       <c r="B25">
-        <v>24.76541269319689</v>
+        <v>64.34872520763541</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -969,7 +969,7 @@
         <v>2004</v>
       </c>
       <c r="B26">
-        <v>27.11936759706429</v>
+        <v>63.07257512870758</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -977,7 +977,7 @@
         <v>2005</v>
       </c>
       <c r="B27">
-        <v>27.07676179820706</v>
+        <v>64.07318437592549</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -985,7 +985,7 @@
         <v>2006</v>
       </c>
       <c r="B28">
-        <v>26.57800598580277</v>
+        <v>64.87685404905513</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -993,7 +993,7 @@
         <v>2007</v>
       </c>
       <c r="B29">
-        <v>23.82265190452721</v>
+        <v>66.04014850149031</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1001,7 +1001,7 @@
         <v>2008</v>
       </c>
       <c r="B30">
-        <v>20.58566497384844</v>
+        <v>68.34796175535224</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1009,7 +1009,7 @@
         <v>2009</v>
       </c>
       <c r="B31">
-        <v>20.27337642907351</v>
+        <v>68.00606952330871</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1017,7 +1017,7 @@
         <v>2010</v>
       </c>
       <c r="B32">
-        <v>20.77383302531255</v>
+        <v>67.84351708253806</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1025,7 +1025,7 @@
         <v>2011</v>
       </c>
       <c r="B33">
-        <v>19.58255150797782</v>
+        <v>69.02312362626182</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1033,7 +1033,7 @@
         <v>2012</v>
       </c>
       <c r="B34">
-        <v>19.11682198006619</v>
+        <v>69.20862704581847</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1041,7 +1041,7 @@
         <v>2013</v>
       </c>
       <c r="B35">
-        <v>17.63840961487545</v>
+        <v>70.76230615872412</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1049,7 +1049,7 @@
         <v>2014</v>
       </c>
       <c r="B36">
-        <v>17.99976889212852</v>
+        <v>70.34532579316748</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>2015</v>
       </c>
       <c r="B37">
-        <v>18.08932985487341</v>
+        <v>69.950933310914</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>2016</v>
       </c>
       <c r="B38">
-        <v>17.50825828041602</v>
+        <v>70.66365925256602</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>2017</v>
       </c>
       <c r="B39">
-        <v>18.58334720710878</v>
+        <v>70.34711025610673</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>2018</v>
       </c>
       <c r="B40">
-        <v>20.73630601356827</v>
+        <v>69.3553782524158</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>2019</v>
       </c>
       <c r="B41">
-        <v>19.43284515107672</v>
+        <v>70.79420381754008</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1097,7 +1097,7 @@
         <v>2020</v>
       </c>
       <c r="B42">
-        <v>19.95498366095388</v>
+        <v>71.66443327187299</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1105,7 +1105,7 @@
         <v>2021</v>
       </c>
       <c r="B43">
-        <v>21.07415385601889</v>
+        <v>69.44880106361298</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1134,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>21.46279907226562</v>
+        <v>65.14089202880859</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>21.35920906066895</v>
+        <v>66.04114532470703</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>21.11656188964844</v>
+        <v>67.28900146484375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>21.19887542724609</v>
+        <v>68.53733825683594</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>21.04366493225098</v>
+        <v>69.86581420898438</v>
       </c>
     </row>
   </sheetData>
